--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31812.11705212995</v>
+        <v>6330611.293373859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31812.11705212995</v>
+        <v>6330611.293373859</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95310.01139344148</v>
+        <v>9192972.460753622</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95310.01139344148</v>
+        <v>9192972.460753622</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609880394.956351</v>
+        <v>58931393.58416908</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15888.7716559562</v>
+        <v>1463805.184240682</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30380.43229121461</v>
+        <v>2692091.757374571</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44857.88628839858</v>
+        <v>3920378.330508461</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60051.5567061238</v>
+        <v>5147136.851823136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75245.22712384901</v>
+        <v>6373895.37313781</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90438.8975415742</v>
+        <v>7600653.894452482</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105632.5679592991</v>
+        <v>8827412.415767178</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120826.238377023</v>
+        <v>10054170.93708199</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136992.9314471679</v>
+        <v>10866581.26491592</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153496.03179004</v>
+        <v>11745936.64002257</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169999.1321329121</v>
+        <v>12625292.01512923</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>186502.2324757843</v>
+        <v>13504647.39023588</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>203005.3328186564</v>
+        <v>14384002.76534254</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>219508.4331615285</v>
+        <v>15263358.14044921</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236011.5335044006</v>
+        <v>16142713.51555588</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>8.474660677935129e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
